--- a/Internship-Curriculum 2023.xlsx
+++ b/Internship-Curriculum 2023.xlsx
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1768,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB9EC48AEDD4B44953285EB5F9F1A92" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c70228b8780fb0af4d3df792a1c0b2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
     <xsd:element name="properties">
@@ -1881,15 +1890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BCFE3C1-F788-4C01-8CB5-4C5762026558}">
   <ds:schemaRefs>
@@ -1900,6 +1900,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DCAD8B-D5FC-4119-8577-42F03FAFF043}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1913,12 +1921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Internship-Curriculum 2023.xlsx
+++ b/Internship-Curriculum 2023.xlsx
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
@@ -1768,15 +1768,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB9EC48AEDD4B44953285EB5F9F1A92" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c70228b8780fb0af4d3df792a1c0b2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
     <xsd:element name="properties">
@@ -1890,6 +1881,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BCFE3C1-F788-4C01-8CB5-4C5762026558}">
   <ds:schemaRefs>
@@ -1900,14 +1900,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DCAD8B-D5FC-4119-8577-42F03FAFF043}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1921,4 +1913,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Internship-Curriculum 2023.xlsx
+++ b/Internship-Curriculum 2023.xlsx
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1768,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB9EC48AEDD4B44953285EB5F9F1A92" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c70228b8780fb0af4d3df792a1c0b2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
     <xsd:element name="properties">
@@ -1881,15 +1890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BCFE3C1-F788-4C01-8CB5-4C5762026558}">
   <ds:schemaRefs>
@@ -1900,6 +1900,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DCAD8B-D5FC-4119-8577-42F03FAFF043}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1913,12 +1921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B28A0D1-120D-4C23-AAFE-6B2FF0FAE1AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>